--- a/evaluationresults/EvaluationResults.xlsx
+++ b/evaluationresults/EvaluationResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanji/Dropbox/workspace/devicedescriptiongenerator/evaluationresults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9182D9-BA58-C24A-AF4B-4B6B483A8EEE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C99E68-C15E-7849-8B61-AA1F77C03352}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27200" windowHeight="15360" activeTab="1" xr2:uid="{7363C263-C000-6549-8C22-5416048D2533}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="14080" activeTab="2" xr2:uid="{7363C263-C000-6549-8C22-5416048D2533}"/>
   </bookViews>
   <sheets>
     <sheet name="Scalability Evaluation" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>Test Cases Pass Rate</t>
   </si>
   <si>
-    <t>RFDevice</t>
-  </si>
-  <si>
     <t>DIPC</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>OPC</t>
+  </si>
+  <si>
+    <t>SDR</t>
   </si>
 </sst>
 </file>
@@ -173,11 +173,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -225,7 +225,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RFDevice</c:v>
+                  <c:v>SDR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -288,22 +288,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2698</c:v>
+                  <c:v>2823</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4788</c:v>
+                  <c:v>5019</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8145</c:v>
+                  <c:v>8356</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13399</c:v>
+                  <c:v>11568</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16230</c:v>
+                  <c:v>15685</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23753</c:v>
+                  <c:v>22089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1052,7 +1052,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RFDevice</c:v>
+                  <c:v>SDR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1115,22 +1115,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.8671875</c:v>
+                  <c:v>0.87890625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86328125</c:v>
+                  <c:v>0.876953125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.875</c:v>
+                  <c:v>0.87109375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86328125</c:v>
+                  <c:v>0.876953125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.857421875</c:v>
+                  <c:v>0.859375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.865234375</c:v>
+                  <c:v>0.861328125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1882,7 +1882,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RFDevice</c:v>
+                  <c:v>SDR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1945,22 +1945,22 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>8.5000000000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.5000000000000006E-3</c:v>
+                  <c:v>8.3000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6E-3</c:v>
+                  <c:v>8.3999999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5000000000000006E-3</c:v>
+                  <c:v>8.3000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>8.5000000000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3999999999999995E-3</c:v>
+                  <c:v>8.5000000000000006E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2706,7 +2706,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RFDevice</c:v>
+                  <c:v>SDR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2769,22 +2769,22 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.12379999999999999</c:v>
+                  <c:v>0.1323</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13</c:v>
+                  <c:v>0.1305</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1346</c:v>
+                  <c:v>0.12859999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13550000000000001</c:v>
+                  <c:v>0.12959999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1244</c:v>
+                  <c:v>0.13070000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1278</c:v>
+                  <c:v>0.13569999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3522,7 +3522,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RFDevice</c:v>
+                  <c:v>SDR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3585,22 +3585,22 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>2.7099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2.7199999999999998E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.7E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.7E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.7099999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.7E-2</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7099999999999999E-2</c:v>
+                  <c:v>2.7199999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4355,7 +4355,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RFDevice</c:v>
+                  <c:v>SDR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4418,22 +4418,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.53269999999999995</c:v>
+                  <c:v>0.52339999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55449999999999999</c:v>
+                  <c:v>0.54830000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5514</c:v>
+                  <c:v>0.56389999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.55449999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.56699999999999995</c:v>
+                  <c:v>0.55759999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.56389999999999996</c:v>
+                  <c:v>0.55759999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5174,7 +5174,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RFDevice</c:v>
+                  <c:v>SDR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5993,7 +5993,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RFDevice</c:v>
+                  <c:v>SDR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6056,22 +6056,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.3125</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.375</c:v>
+                  <c:v>0.3125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11859,7 +11859,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11875,14 +11875,14 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:8" ht="16" customHeight="1">
       <c r="A2" s="2"/>
@@ -11908,25 +11908,25 @@
     </row>
     <row r="3" spans="1:8" ht="16" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B3" s="11">
-        <v>2698</v>
+        <v>2823</v>
       </c>
       <c r="C3" s="11">
-        <v>4788</v>
+        <v>5019</v>
       </c>
       <c r="D3" s="11">
-        <v>8145</v>
+        <v>8356</v>
       </c>
       <c r="E3" s="11">
-        <v>13399</v>
+        <v>11568</v>
       </c>
       <c r="F3" s="11">
-        <v>16230</v>
+        <v>15685</v>
       </c>
       <c r="G3" s="11">
-        <v>23753</v>
+        <v>22089</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -12017,7 +12017,7 @@
       <c r="F7" s="10">
         <v>26335573</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>54582711</v>
       </c>
       <c r="H7" s="5"/>
@@ -12035,8 +12035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81782CA9-3BC1-D94E-845E-59E2FD32055A}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12054,14 +12054,14 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="16" customHeight="1">
       <c r="A2" s="2"/>
@@ -12086,31 +12086,31 @@
     </row>
     <row r="3" spans="1:7" ht="16" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B3" s="6">
         <f t="shared" ref="B3:F3" si="0">B15</f>
-        <v>0.8671875</v>
+        <v>0.87890625</v>
       </c>
       <c r="C3" s="6">
         <f t="shared" si="0"/>
-        <v>0.86328125</v>
+        <v>0.876953125</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" si="0"/>
-        <v>0.875</v>
+        <v>0.87109375</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" si="0"/>
-        <v>0.86328125</v>
+        <v>0.876953125</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" si="0"/>
-        <v>0.857421875</v>
+        <v>0.859375</v>
       </c>
       <c r="G3" s="6">
         <f>G15</f>
-        <v>0.865234375</v>
+        <v>0.861328125</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -12234,7 +12234,7 @@
     </row>
     <row r="10" spans="1:7" ht="32" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -12266,27 +12266,27 @@
       </c>
       <c r="B12" s="3">
         <f t="shared" ref="B12:D12" si="5">B11-B13</f>
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" si="5"/>
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" si="5"/>
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E12" s="3">
         <f>E11-E13</f>
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="F12" s="3">
         <f>F11-F13</f>
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G12" s="3">
         <f>G11-G13</f>
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -12294,22 +12294,22 @@
         <v>8</v>
       </c>
       <c r="B13" s="3">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C13" s="3">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D13" s="3">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E13" s="3">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G13" s="3">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -12341,27 +12341,27 @@
       </c>
       <c r="B15" s="4">
         <f t="shared" ref="B15:D15" si="6">B12/B11</f>
-        <v>0.8671875</v>
+        <v>0.87890625</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="6"/>
-        <v>0.86328125</v>
+        <v>0.876953125</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="6"/>
-        <v>0.875</v>
+        <v>0.87109375</v>
       </c>
       <c r="E15" s="4">
         <f>E12/E11</f>
-        <v>0.86328125</v>
+        <v>0.876953125</v>
       </c>
       <c r="F15" s="4">
         <f>F12/F11</f>
-        <v>0.857421875</v>
+        <v>0.859375</v>
       </c>
       <c r="G15" s="4">
         <f>G12/G11</f>
-        <v>0.865234375</v>
+        <v>0.861328125</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="24">
@@ -12906,8 +12906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117DCB63-3470-4B4B-BD53-E1CBC79257CD}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12923,16 +12923,16 @@
   <sheetData>
     <row r="1" spans="1:7" ht="31" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="16" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -12959,25 +12959,25 @@
     </row>
     <row r="3" spans="1:7" ht="16" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B3" s="8">
-        <v>8.0000000000000002E-3</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="C3" s="8">
-        <v>8.5000000000000006E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="D3" s="8">
-        <v>8.6E-3</v>
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="E3" s="8">
-        <v>8.5000000000000006E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="F3" s="8">
         <v>8.5000000000000006E-3</v>
       </c>
       <c r="G3" s="8">
-        <v>8.3999999999999995E-3</v>
+        <v>8.5000000000000006E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -13074,16 +13074,16 @@
     </row>
     <row r="9" spans="1:7" ht="32" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="9" t="s">
@@ -13110,25 +13110,25 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B11" s="8">
-        <v>0.12379999999999999</v>
+        <v>0.1323</v>
       </c>
       <c r="C11" s="8">
-        <v>0.13</v>
+        <v>0.1305</v>
       </c>
       <c r="D11" s="8">
-        <v>0.1346</v>
+        <v>0.12859999999999999</v>
       </c>
       <c r="E11" s="8">
-        <v>0.13550000000000001</v>
+        <v>0.12959999999999999</v>
       </c>
       <c r="F11" s="8">
-        <v>0.1244</v>
+        <v>0.13070000000000001</v>
       </c>
       <c r="G11" s="8">
-        <v>0.1278</v>
+        <v>0.13569999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -13234,16 +13234,16 @@
     </row>
     <row r="17" spans="1:7" ht="24">
       <c r="A17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="9" t="s">
@@ -13270,25 +13270,25 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B19" s="8">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="C19" s="8">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="D19" s="8">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="E19" s="8">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="F19" s="8">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="C19" s="8">
-        <v>2.7E-2</v>
-      </c>
-      <c r="D19" s="8">
-        <v>2.7E-2</v>
-      </c>
-      <c r="E19" s="8">
-        <v>2.7099999999999999E-2</v>
-      </c>
-      <c r="F19" s="8">
-        <v>2.7E-2</v>
-      </c>
       <c r="G19" s="8">
-        <v>2.7099999999999999E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -13394,16 +13394,16 @@
     </row>
     <row r="25" spans="1:7" ht="24">
       <c r="A25" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="5" t="s">
@@ -13430,25 +13430,25 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B27" s="4">
-        <v>0.53269999999999995</v>
+        <v>0.52339999999999998</v>
       </c>
       <c r="C27" s="4">
-        <v>0.55449999999999999</v>
+        <v>0.54830000000000001</v>
       </c>
       <c r="D27" s="4">
-        <v>0.5514</v>
+        <v>0.56389999999999996</v>
       </c>
       <c r="E27" s="4">
         <v>0.55449999999999999</v>
       </c>
       <c r="F27" s="4">
-        <v>0.56699999999999995</v>
+        <v>0.55759999999999998</v>
       </c>
       <c r="G27" s="4">
-        <v>0.56389999999999996</v>
+        <v>0.55759999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -13554,16 +13554,16 @@
     </row>
     <row r="33" spans="1:7" ht="24">
       <c r="A33" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="5" t="s">
@@ -13590,25 +13590,25 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B35" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C35" s="4">
         <v>0.3125</v>
       </c>
-      <c r="C35" s="4">
+      <c r="D35" s="4">
+        <v>0.3125</v>
+      </c>
+      <c r="E35" s="4">
         <v>0.375</v>
-      </c>
-      <c r="D35" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="E35" s="4">
-        <v>0.3125</v>
       </c>
       <c r="F35" s="4">
         <v>0.375</v>
       </c>
       <c r="G35" s="4">
-        <v>0.375</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -13714,16 +13714,16 @@
     </row>
     <row r="41" spans="1:7" ht="24">
       <c r="A41" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
     </row>
     <row r="42" spans="1:7" ht="24" customHeight="1">
       <c r="A42" s="5" t="s">
@@ -13750,7 +13750,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B43" s="4">
         <v>0.40200000000000002</v>

--- a/evaluationresults/EvaluationResults.xlsx
+++ b/evaluationresults/EvaluationResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanji/Dropbox/workspace/devicedescriptiongenerator/evaluationresults/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanji/Dropbox/workspace/objectdescriptiongenerator/evaluationresults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C99E68-C15E-7849-8B61-AA1F77C03352}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8634F0FC-ED7B-DB49-BD10-344A03378EB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="14080" activeTab="2" xr2:uid="{7363C263-C000-6549-8C22-5416048D2533}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27200" windowHeight="15360" activeTab="1" xr2:uid="{7363C263-C000-6549-8C22-5416048D2533}"/>
   </bookViews>
   <sheets>
     <sheet name="Scalability Evaluation" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="19">
   <si>
     <t>Test ontologies</t>
-  </si>
-  <si>
-    <t>Number of device descriptions</t>
   </si>
   <si>
     <t>eDIANA</t>
@@ -88,6 +85,12 @@
   <si>
     <t>SDR</t>
   </si>
+  <si>
+    <t>Univ-Bench</t>
+  </si>
+  <si>
+    <t>Number of object descriptions</t>
+  </si>
 </sst>
 </file>
 
@@ -96,7 +99,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -115,6 +118,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -173,12 +182,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -288,22 +298,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2823</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5019</c:v>
+                  <c:v>5483</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8356</c:v>
+                  <c:v>8818</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11568</c:v>
+                  <c:v>11786</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15685</c:v>
+                  <c:v>17507</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22089</c:v>
+                  <c:v>23209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -387,22 +397,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>453</c:v>
+                  <c:v>509</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>575</c:v>
+                  <c:v>696</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>866</c:v>
+                  <c:v>837</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>897</c:v>
+                  <c:v>1062</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1119</c:v>
+                  <c:v>1145</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1962</c:v>
+                  <c:v>1393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -486,22 +496,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1161</c:v>
+                  <c:v>1459</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2393</c:v>
+                  <c:v>2423</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3201</c:v>
+                  <c:v>3472</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3590</c:v>
+                  <c:v>4200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4713</c:v>
+                  <c:v>4706</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6637</c:v>
+                  <c:v>5605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -585,22 +595,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>700</c:v>
+                  <c:v>696</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1037</c:v>
+                  <c:v>1043</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1303</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1536</c:v>
+                  <c:v>1793</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1723</c:v>
+                  <c:v>1760</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2952</c:v>
+                  <c:v>2434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -686,22 +696,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>306545</c:v>
+                  <c:v>821677</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1397324</c:v>
+                  <c:v>3181957</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9298005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17895203</c:v>
+                  <c:v>16599896</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>27750355</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>26335573</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>54582711</c:v>
+                  <c:v>53478231</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>104985249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -710,6 +720,105 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-9177-DD4F-B5EC-FBB2077CCD26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Scalability Evaluation'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Univ-Bench</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Scalability Evaluation'!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scalability Evaluation'!$B$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>794</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>948</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0473-F64F-99EB-1810F33B045F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -754,7 +863,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="1"/>
-                  <a:t>Number of Device Descriptions</a:t>
+                  <a:t>Number of Object Descriptions</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1115,22 +1224,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.87890625</c:v>
+                  <c:v>0.8671875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.876953125</c:v>
+                  <c:v>0.861328125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87109375</c:v>
+                  <c:v>0.85546875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.876953125</c:v>
+                  <c:v>0.853515625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.859375</c:v>
+                  <c:v>0.849609375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.861328125</c:v>
+                  <c:v>0.84765625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1214,22 +1323,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.99435028248587576</c:v>
+                  <c:v>0.98870056497175141</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99435028248587576</c:v>
+                  <c:v>0.98870056497175141</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99435028248587576</c:v>
+                  <c:v>0.98870056497175141</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99435028248587576</c:v>
+                  <c:v>0.98870056497175141</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99435028248587576</c:v>
+                  <c:v>0.98870056497175141</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99435028248587576</c:v>
+                  <c:v>0.98870056497175141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1313,22 +1422,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.81306990881458963</c:v>
+                  <c:v>0.77811550151975684</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81458966565349544</c:v>
+                  <c:v>0.7735562310030395</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.79635258358662619</c:v>
+                  <c:v>0.74924012158054709</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.80851063829787229</c:v>
+                  <c:v>0.75987841945288759</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78419452887537999</c:v>
+                  <c:v>0.74316109422492405</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.79179331306990886</c:v>
+                  <c:v>0.76899696048632216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1412,22 +1521,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.99319727891156462</c:v>
+                  <c:v>0.95918367346938771</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97278911564625847</c:v>
+                  <c:v>0.97959183673469385</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96598639455782309</c:v>
+                  <c:v>0.98639455782312924</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97959183673469385</c:v>
+                  <c:v>0.95918367346938771</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96598639455782309</c:v>
+                  <c:v>0.95918367346938771</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97959183673469385</c:v>
+                  <c:v>0.98639455782312924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1511,22 +1620,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.98584905660377353</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.97641509433962259</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.98113207547169812</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.97641509433962259</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99528301886792447</c:v>
+                  <c:v>0.96698113207547165</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99528301886792447</c:v>
+                  <c:v>0.97641509433962259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1535,6 +1644,105 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-B3CB-9142-BBD4-DEB71F99BE4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dataset Quality Evaluation'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Univ-Bench</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Dataset Quality Evaluation'!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dataset Quality Evaluation'!$B$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.92792792792792789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85585585585585588</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90990990990990994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87387387387387383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85585585585585588</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84684684684684686</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC24-484F-ACC1-2CBC8C95CA0F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1583,7 +1791,7 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Number of Device Descriptions</a:t>
+                  <a:t>Number of Object Descriptions</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1658,7 +1866,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0.75000000000000011"/>
+          <c:min val="0.70000000000000007"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1945,22 +2153,22 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.5000000000000006E-3</c:v>
+                  <c:v>7.9000000000000008E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3000000000000001E-3</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3999999999999995E-3</c:v>
+                  <c:v>8.0999999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3000000000000001E-3</c:v>
+                  <c:v>8.0999999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5000000000000006E-3</c:v>
+                  <c:v>7.9000000000000008E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.5000000000000006E-3</c:v>
+                  <c:v>7.9000000000000008E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2042,22 +2250,22 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.7500000000000002E-2</c:v>
+                  <c:v>1.77E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7399999999999999E-2</c:v>
+                  <c:v>1.7600000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6299999999999999E-2</c:v>
+                  <c:v>1.8100000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>1.77E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.67E-2</c:v>
+                  <c:v>1.8100000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6400000000000001E-2</c:v>
+                  <c:v>1.78E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2141,22 +2349,22 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.3299999999999999E-2</c:v>
+                  <c:v>1.34E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3599999999999999E-2</c:v>
+                  <c:v>1.2800000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.37E-2</c:v>
+                  <c:v>1.34E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.34E-2</c:v>
+                  <c:v>1.3100000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3599999999999999E-2</c:v>
+                  <c:v>1.32E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3599999999999999E-2</c:v>
+                  <c:v>1.2999999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2240,22 +2448,22 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.7000000000000001E-2</c:v>
+                  <c:v>1.67E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7000000000000001E-2</c:v>
+                  <c:v>1.7899999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7500000000000002E-2</c:v>
+                  <c:v>1.7600000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6500000000000001E-2</c:v>
+                  <c:v>1.72E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.67E-2</c:v>
+                  <c:v>1.78E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.67E-2</c:v>
+                  <c:v>1.7600000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2339,22 +2547,22 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.5000000000000006E-3</c:v>
+                  <c:v>9.2999999999999992E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2000000000000007E-3</c:v>
+                  <c:v>9.9000000000000008E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.5000000000000006E-3</c:v>
+                  <c:v>9.2999999999999992E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3000000000000001E-3</c:v>
+                  <c:v>9.4999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.3000000000000001E-3</c:v>
+                  <c:v>9.7000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3000000000000001E-3</c:v>
+                  <c:v>9.4000000000000004E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2363,6 +2571,105 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-1FBD-3A4B-AC5A-1E78C20C365E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Space Coverage Evaluation'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Univ-Bench</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Space Coverage Evaluation'!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Space Coverage Evaluation'!$B$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.3299999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2399999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3600000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3799999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3700000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4100000000000004E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A5A0-BE49-8FC5-B897E453346A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2419,7 +2726,7 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t> Device Descriptions</a:t>
+                  <a:t> Object Descriptions</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" b="1">
                   <a:solidFill>
@@ -2702,7 +3009,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Space Coverage Evaluation'!$A$11</c:f>
+              <c:f>'Space Coverage Evaluation'!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2737,7 +3044,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$10:$G$10</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$11:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2764,27 +3071,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$11:$G$11</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$12:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.1323</c:v>
+                  <c:v>0.13220000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1305</c:v>
+                  <c:v>0.12189999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12859999999999999</c:v>
+                  <c:v>0.1241</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12959999999999999</c:v>
+                  <c:v>0.12620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13070000000000001</c:v>
+                  <c:v>0.128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13569999999999999</c:v>
+                  <c:v>0.12709999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2801,7 +3108,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Space Coverage Evaluation'!$A$12</c:f>
+              <c:f>'Space Coverage Evaluation'!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2834,7 +3141,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$10:$G$10</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$11:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2861,7 +3168,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$12:$G$12</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$13:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2898,7 +3205,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Space Coverage Evaluation'!$A$13</c:f>
+              <c:f>'Space Coverage Evaluation'!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2933,7 +3240,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$10:$G$10</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$11:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2960,27 +3267,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$13:$G$13</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$14:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.4000000000000005E-2</c:v>
+                  <c:v>8.3799999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.5599999999999996E-2</c:v>
+                  <c:v>8.5500000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.5800000000000001E-2</c:v>
+                  <c:v>8.5300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5500000000000007E-2</c:v>
+                  <c:v>8.5400000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5199999999999998E-2</c:v>
+                  <c:v>8.5699999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.5000000000000006E-2</c:v>
+                  <c:v>8.5699999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2997,7 +3304,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Space Coverage Evaluation'!$A$14</c:f>
+              <c:f>'Space Coverage Evaluation'!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3032,7 +3339,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$10:$G$10</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$11:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3059,7 +3366,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$14:$G$14</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$15:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3096,7 +3403,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Space Coverage Evaluation'!$A$15</c:f>
+              <c:f>'Space Coverage Evaluation'!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3131,7 +3438,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$10:$G$10</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$11:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3158,27 +3465,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$15:$G$15</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$16:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.1022</c:v>
+                  <c:v>0.1038</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1024</c:v>
+                  <c:v>0.1012</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.10150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.1018</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1011</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1</c:v>
+                  <c:v>0.105</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1018</c:v>
+                  <c:v>0.10290000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3187,6 +3494,105 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-B5FF-C245-A5F5-CBE556F29DB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Space Coverage Evaluation'!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Univ-Bench</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Space Coverage Evaluation'!$B$11:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Space Coverage Evaluation'!$B$17:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C6C-7744-9E6C-E6F40B0DC745}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3235,7 +3641,7 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Number of Device Descriptions</a:t>
+                  <a:t>Number of Object Descriptions</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3518,7 +3924,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Space Coverage Evaluation'!$A$19</c:f>
+              <c:f>'Space Coverage Evaluation'!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3553,7 +3959,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$18:$G$18</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$20:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3580,27 +3986,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$19:$G$19</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$21:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.7099999999999999E-2</c:v>
+                  <c:v>2.76E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6800000000000001E-2</c:v>
+                  <c:v>2.76E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.69E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.69E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2.7300000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.7300000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.7199999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.7199999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3617,7 +4023,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Space Coverage Evaluation'!$A$20</c:f>
+              <c:f>'Space Coverage Evaluation'!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3650,7 +4056,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$18:$G$18</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$20:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3677,27 +4083,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$20:$G$20</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$22:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.31950000000000001</c:v>
+                  <c:v>0.32679999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31969999999999998</c:v>
+                  <c:v>0.3271</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31969999999999998</c:v>
+                  <c:v>0.32629999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32719999999999999</c:v>
+                  <c:v>0.3231</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32940000000000003</c:v>
+                  <c:v>0.32479999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.32119999999999999</c:v>
+                  <c:v>0.32519999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3714,7 +4120,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Space Coverage Evaluation'!$A$21</c:f>
+              <c:f>'Space Coverage Evaluation'!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3749,7 +4155,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$18:$G$18</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$20:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3776,27 +4182,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$21:$G$21</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$23:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.3E-2</c:v>
+                  <c:v>2.29E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2800000000000001E-2</c:v>
+                  <c:v>2.2599999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2800000000000001E-2</c:v>
+                  <c:v>2.29E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.29E-2</c:v>
+                  <c:v>2.2700000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3099999999999999E-2</c:v>
+                  <c:v>2.3E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3813,7 +4219,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Space Coverage Evaluation'!$A$22</c:f>
+              <c:f>'Space Coverage Evaluation'!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3848,7 +4254,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$18:$G$18</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$20:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3875,27 +4281,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$22:$G$22</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$24:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.47E-2</c:v>
+                  <c:v>2.5700000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5399999999999999E-2</c:v>
+                  <c:v>2.52E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2.5600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.53E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2.5100000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.4899999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.47E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.53E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3912,7 +4318,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Space Coverage Evaluation'!$A$23</c:f>
+              <c:f>'Space Coverage Evaluation'!$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3947,7 +4353,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$18:$G$18</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$20:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3974,27 +4380,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$23:$G$23</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$25:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.0299999999999999E-2</c:v>
+                  <c:v>2.0899999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.12E-2</c:v>
+                  <c:v>2.1299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.12E-2</c:v>
+                  <c:v>2.0899999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1399999999999999E-2</c:v>
+                  <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.12E-2</c:v>
+                  <c:v>2.1100000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.12E-2</c:v>
+                  <c:v>2.1100000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4003,6 +4409,105 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-03E9-9545-8085-AE4B0A64538F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Space Coverage Evaluation'!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Univ-Bench</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Space Coverage Evaluation'!$B$20:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Space Coverage Evaluation'!$B$26:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.6800000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.28E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2699999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3699999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.11E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-45B8-D94C-B371-987D29AB23DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4059,7 +4564,7 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t> of Device Descriptions</a:t>
+                  <a:t> of Object Descriptions</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" b="1">
                   <a:solidFill>
@@ -4351,7 +4856,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Space Coverage Evaluation'!$A$27</c:f>
+              <c:f>'Space Coverage Evaluation'!$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4386,7 +4891,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$26:$G$26</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$29:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4413,27 +4918,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$27:$G$27</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$30:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.52339999999999998</c:v>
+                  <c:v>0.50160000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.53269999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.54830000000000001</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.56389999999999996</c:v>
-                </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.54520000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53890000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.55449999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.55759999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.55759999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4450,7 +4955,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Space Coverage Evaluation'!$A$28</c:f>
+              <c:f>'Space Coverage Evaluation'!$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4483,7 +4988,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$26:$G$26</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$29:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4510,27 +5015,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$28:$G$28</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$31:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.72860000000000003</c:v>
+                  <c:v>0.71430000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7571</c:v>
+                  <c:v>0.77139999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.77139999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.78569999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.77139999999999997</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.78569999999999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4547,7 +5052,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Space Coverage Evaluation'!$A$29</c:f>
+              <c:f>'Space Coverage Evaluation'!$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4582,7 +5087,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$26:$G$26</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$29:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4609,27 +5114,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$29:$G$29</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$32:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.91959999999999997</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.91069999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91959999999999997</c:v>
+                  <c:v>0.91069999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91959999999999997</c:v>
+                  <c:v>0.9375</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.91069999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.92859999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.9375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4646,7 +5151,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Space Coverage Evaluation'!$A$30</c:f>
+              <c:f>'Space Coverage Evaluation'!$A$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4681,7 +5186,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$26:$G$26</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$29:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4708,27 +5213,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$30:$G$30</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$33:$G$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.67</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.72</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.71</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4745,7 +5250,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Space Coverage Evaluation'!$A$31</c:f>
+              <c:f>'Space Coverage Evaluation'!$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4780,7 +5285,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$26:$G$26</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$29:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4807,27 +5312,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$31:$G$31</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$34:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.30549999999999999</c:v>
+                  <c:v>0.27089999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42649999999999999</c:v>
+                  <c:v>0.34289999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4582</c:v>
+                  <c:v>0.38040000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53600000000000003</c:v>
+                  <c:v>0.40350000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5706</c:v>
+                  <c:v>0.45240000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5706</c:v>
+                  <c:v>0.49280000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4836,6 +5341,105 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-ACA2-F34F-85E1-EAF0C1135AD6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Space Coverage Evaluation'!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Univ-Bench</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Space Coverage Evaluation'!$B$29:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Space Coverage Evaluation'!$B$35:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.66669999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90480000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92859999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97619999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97619999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-83A1-1841-90E5-DFD48D44B484}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4884,7 +5488,7 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Number of Device Descriptions</a:t>
+                  <a:t>Number of Object Descriptions</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4964,7 +5568,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0.30000000000000004"/>
+          <c:min val="0.2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5170,7 +5774,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Space Coverage Evaluation'!$A$43</c:f>
+              <c:f>'Space Coverage Evaluation'!$A$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5205,7 +5809,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$42:$G$42</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$47:$G$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5232,15 +5836,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$43:$G$43</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$48:$G$48</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.40200000000000002</c:v>
+                  <c:v>0.42159999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42159999999999997</c:v>
+                  <c:v>0.4118</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.42159999999999997</c:v>
@@ -5269,7 +5873,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Space Coverage Evaluation'!$A$44</c:f>
+              <c:f>'Space Coverage Evaluation'!$A$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5302,7 +5906,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$42:$G$42</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$47:$G$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5329,7 +5933,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$44:$G$44</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$49:$G$49</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5366,7 +5970,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Space Coverage Evaluation'!$A$45</c:f>
+              <c:f>'Space Coverage Evaluation'!$A$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5401,7 +6005,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$42:$G$42</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$47:$G$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5428,21 +6032,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$45:$G$45</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$50:$G$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.61899999999999999</c:v>
+                  <c:v>0.63490000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76190000000000002</c:v>
+                  <c:v>0.77780000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76190000000000002</c:v>
+                  <c:v>0.82540000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.73019999999999996</c:v>
+                  <c:v>0.82540000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.84130000000000005</c:v>
@@ -5465,7 +6069,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Space Coverage Evaluation'!$A$46</c:f>
+              <c:f>'Space Coverage Evaluation'!$A$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5500,7 +6104,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$42:$G$42</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$47:$G$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5527,27 +6131,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$46:$G$46</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$51:$G$51</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.57750000000000001</c:v>
+                  <c:v>0.50700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61970000000000003</c:v>
+                  <c:v>0.59150000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66200000000000003</c:v>
+                  <c:v>0.63380000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61970000000000003</c:v>
+                  <c:v>0.63380000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60560000000000003</c:v>
+                  <c:v>0.70420000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61970000000000003</c:v>
+                  <c:v>0.64790000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5564,7 +6168,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Space Coverage Evaluation'!$A$47</c:f>
+              <c:f>'Space Coverage Evaluation'!$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5599,7 +6203,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$42:$G$42</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$47:$G$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5626,12 +6230,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$47:$G$47</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$52:$G$52</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.57350000000000001</c:v>
+                  <c:v>0.60289999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.60289999999999999</c:v>
@@ -5643,10 +6247,10 @@
                   <c:v>0.60289999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.61760000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.63239999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.64710000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5655,6 +6259,105 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-0B77-0842-8057-8C06AB4EE80B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Space Coverage Evaluation'!$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Univ-Bench</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Space Coverage Evaluation'!$B$47:$G$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Space Coverage Evaluation'!$B$53:$G$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.66670000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85709999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90480000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95239999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95239999999999991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4853-AF4F-9302-3B635485AD2D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5703,7 +6406,7 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Number of Device Descriptions</a:t>
+                  <a:t>Number of Object Descriptions</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5782,7 +6485,7 @@
         <c:axId val="1535351263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.9"/>
+          <c:max val="1"/>
           <c:min val="0.4"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5989,7 +6692,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Space Coverage Evaluation'!$A$35</c:f>
+              <c:f>'Space Coverage Evaluation'!$A$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6024,7 +6727,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$34:$G$34</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$38:$G$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6051,7 +6754,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$35:$G$35</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$39:$G$39</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6059,19 +6762,19 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.3125</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3125</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6088,7 +6791,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Space Coverage Evaluation'!$A$36</c:f>
+              <c:f>'Space Coverage Evaluation'!$A$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6121,7 +6824,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$34:$G$34</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$38:$G$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6148,7 +6851,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$36:$G$36</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$40:$G$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6185,7 +6888,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Space Coverage Evaluation'!$A$37</c:f>
+              <c:f>'Space Coverage Evaluation'!$A$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6220,7 +6923,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$34:$G$34</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$38:$G$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6247,7 +6950,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$37:$G$37</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$41:$G$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6258,16 +6961,16 @@
                   <c:v>0.23330000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26669999999999999</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.33329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.36670000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6284,7 +6987,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Space Coverage Evaluation'!$A$38</c:f>
+              <c:f>'Space Coverage Evaluation'!$A$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6319,7 +7022,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$34:$G$34</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$38:$G$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6346,7 +7049,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$38:$G$38</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$42:$G$42</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6383,7 +7086,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Space Coverage Evaluation'!$A$39</c:f>
+              <c:f>'Space Coverage Evaluation'!$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6418,7 +7121,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$34:$G$34</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$38:$G$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6445,7 +7148,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Space Coverage Evaluation'!$B$39:$G$39</c:f>
+              <c:f>'Space Coverage Evaluation'!$B$43:$G$43</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6456,10 +7159,10 @@
                   <c:v>0.55559999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.55559999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.55559999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.55559999999999998</c:v>
@@ -6474,6 +7177,105 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5D7B-E241-B083-B9A4D50268AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Space Coverage Evaluation'!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Univ-Bench</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Space Coverage Evaluation'!$B$38:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Space Coverage Evaluation'!$B$44:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BB03-9140-9A24-9BCCF2F0234C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6530,7 +7332,7 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t> of Device Descriptions</a:t>
+                  <a:t> of Object Descriptions</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" b="1">
                   <a:solidFill>
@@ -11338,7 +12140,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>734786</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>83456</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11370,13 +12172,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>296216</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>7257</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>740716</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>137885</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11408,13 +12210,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>272143</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>61687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>716643</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>101601</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11446,13 +12248,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>288193</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>15631</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>708269</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11484,13 +12286,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>67733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>211667</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>169333</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11522,13 +12324,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>270933</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>110067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>694267</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>8467</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11856,18 +12658,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE5448E-8EED-8E4E-A23B-ADEB7C8DD236}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="6" max="7" width="11.1640625" customWidth="1"/>
     <col min="8" max="8" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11876,7 +12677,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -11908,119 +12709,142 @@
     </row>
     <row r="3" spans="1:8" ht="16" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="11">
-        <v>2823</v>
+        <v>2700</v>
       </c>
       <c r="C3" s="11">
-        <v>5019</v>
+        <v>5483</v>
       </c>
       <c r="D3" s="11">
-        <v>8356</v>
+        <v>8818</v>
       </c>
       <c r="E3" s="11">
-        <v>11568</v>
+        <v>11786</v>
       </c>
       <c r="F3" s="11">
-        <v>15685</v>
+        <v>17507</v>
       </c>
       <c r="G3" s="11">
-        <v>22089</v>
+        <v>23209</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="11">
-        <v>453</v>
+        <v>509</v>
       </c>
       <c r="C4" s="11">
-        <v>575</v>
+        <v>696</v>
       </c>
       <c r="D4" s="11">
-        <v>866</v>
+        <v>837</v>
       </c>
       <c r="E4" s="11">
-        <v>897</v>
+        <v>1062</v>
       </c>
       <c r="F4" s="11">
-        <v>1119</v>
+        <v>1145</v>
       </c>
       <c r="G4" s="11">
-        <v>1962</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="11">
-        <v>1161</v>
+        <v>1459</v>
       </c>
       <c r="C5" s="11">
-        <v>2393</v>
+        <v>2423</v>
       </c>
       <c r="D5" s="11">
-        <v>3201</v>
+        <v>3472</v>
       </c>
       <c r="E5" s="11">
-        <v>3590</v>
+        <v>4200</v>
       </c>
       <c r="F5" s="11">
-        <v>4713</v>
+        <v>4706</v>
       </c>
       <c r="G5" s="11">
-        <v>6637</v>
+        <v>5605</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="11">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C6" s="11">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="D6" s="11">
         <v>1303</v>
       </c>
       <c r="E6" s="11">
-        <v>1536</v>
+        <v>1793</v>
       </c>
       <c r="F6" s="11">
-        <v>1723</v>
+        <v>1760</v>
       </c>
       <c r="G6" s="11">
-        <v>2952</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="11">
-        <v>306545</v>
+        <v>821677</v>
       </c>
       <c r="C7" s="11">
-        <v>1397324</v>
+        <v>3181957</v>
       </c>
       <c r="D7" s="11">
-        <v>9298005</v>
-      </c>
-      <c r="E7" s="11">
-        <v>17895203</v>
+        <v>16599896</v>
+      </c>
+      <c r="E7" s="15">
+        <v>27750355</v>
       </c>
       <c r="F7" s="10">
-        <v>26335573</v>
-      </c>
-      <c r="G7" s="13">
-        <v>54582711</v>
+        <v>53478231</v>
+      </c>
+      <c r="G7" s="15">
+        <v>104985249</v>
       </c>
       <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="11">
+        <v>352</v>
+      </c>
+      <c r="C8" s="11">
+        <v>551</v>
+      </c>
+      <c r="D8" s="11">
+        <v>616</v>
+      </c>
+      <c r="E8" s="11">
+        <v>794</v>
+      </c>
+      <c r="F8" s="11">
+        <v>934</v>
+      </c>
+      <c r="G8" s="11">
+        <v>948</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12033,10 +12857,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81782CA9-3BC1-D94E-845E-59E2FD32055A}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12055,7 +12879,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -12086,160 +12910,186 @@
     </row>
     <row r="3" spans="1:7" ht="16" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6">
         <f t="shared" ref="B3:F3" si="0">B15</f>
-        <v>0.87890625</v>
+        <v>0.8671875</v>
       </c>
       <c r="C3" s="6">
         <f t="shared" si="0"/>
-        <v>0.876953125</v>
+        <v>0.861328125</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" si="0"/>
-        <v>0.87109375</v>
+        <v>0.85546875</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" si="0"/>
-        <v>0.876953125</v>
+        <v>0.853515625</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" si="0"/>
-        <v>0.859375</v>
+        <v>0.849609375</v>
       </c>
       <c r="G3" s="6">
         <f>G15</f>
-        <v>0.861328125</v>
+        <v>0.84765625</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="6">
         <f t="shared" ref="B4:F4" si="1">B22</f>
-        <v>0.99435028248587576</v>
+        <v>0.98870056497175141</v>
       </c>
       <c r="C4" s="6">
         <f t="shared" si="1"/>
-        <v>0.99435028248587576</v>
+        <v>0.98870056497175141</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="1"/>
-        <v>0.99435028248587576</v>
+        <v>0.98870056497175141</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>0.99435028248587576</v>
+        <v>0.98870056497175141</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" si="1"/>
-        <v>0.99435028248587576</v>
+        <v>0.98870056497175141</v>
       </c>
       <c r="G4" s="6">
         <f>G22</f>
-        <v>0.99435028248587576</v>
+        <v>0.98870056497175141</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="6">
         <f t="shared" ref="B5:F5" si="2">B29</f>
-        <v>0.81306990881458963</v>
+        <v>0.77811550151975684</v>
       </c>
       <c r="C5" s="6">
         <f t="shared" si="2"/>
-        <v>0.81458966565349544</v>
+        <v>0.7735562310030395</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="2"/>
-        <v>0.79635258358662619</v>
+        <v>0.74924012158054709</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="2"/>
-        <v>0.80851063829787229</v>
+        <v>0.75987841945288759</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="2"/>
-        <v>0.78419452887537999</v>
+        <v>0.74316109422492405</v>
       </c>
       <c r="G5" s="6">
         <f>G29</f>
-        <v>0.79179331306990886</v>
+        <v>0.76899696048632216</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="6">
         <f t="shared" ref="B6:F6" si="3">B36</f>
-        <v>0.99319727891156462</v>
+        <v>0.95918367346938771</v>
       </c>
       <c r="C6" s="6">
         <f t="shared" si="3"/>
-        <v>0.97278911564625847</v>
+        <v>0.97959183673469385</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="3"/>
-        <v>0.96598639455782309</v>
+        <v>0.98639455782312924</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="3"/>
-        <v>0.97959183673469385</v>
+        <v>0.95918367346938771</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="3"/>
-        <v>0.96598639455782309</v>
+        <v>0.95918367346938771</v>
       </c>
       <c r="G6" s="6">
         <f>G36</f>
-        <v>0.97959183673469385</v>
+        <v>0.98639455782312924</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="6">
-        <f t="shared" ref="B7:F7" si="4">B43</f>
-        <v>1</v>
+        <f t="shared" ref="B7:F8" si="4">B43</f>
+        <v>0.98584905660377353</v>
       </c>
       <c r="C7" s="6">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.97641509433962259</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.98113207547169812</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.97641509433962259</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="4"/>
-        <v>0.99528301886792447</v>
+        <v>0.96698113207547165</v>
       </c>
       <c r="G7" s="6">
         <f>G43</f>
-        <v>0.99528301886792447</v>
+        <v>0.97641509433962259</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6">
+        <f>B50</f>
+        <v>0.92792792792792789</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" ref="C8:G8" si="5">C50</f>
+        <v>0.85585585585585588</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="5"/>
+        <v>0.90990990990990994</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="5"/>
+        <v>0.87387387387387383</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="5"/>
+        <v>0.85585585585585588</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="5"/>
+        <v>0.84684684684684686</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="32" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="3">
         <v>512</v>
@@ -12262,59 +13112,59 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" ref="B12:D12" si="5">B11-B13</f>
-        <v>450</v>
+        <f t="shared" ref="B12:D12" si="6">B11-B13</f>
+        <v>444</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="5"/>
-        <v>449</v>
+        <f t="shared" si="6"/>
+        <v>441</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="5"/>
-        <v>446</v>
+        <f t="shared" si="6"/>
+        <v>438</v>
       </c>
       <c r="E12" s="3">
         <f>E11-E13</f>
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="F12" s="3">
         <f>F11-F13</f>
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G12" s="3">
         <f>G11-G13</f>
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="3">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C13" s="3">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D13" s="3">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E13" s="3">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F13" s="7">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G13" s="3">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -12337,41 +13187,41 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="4">
-        <f t="shared" ref="B15:D15" si="6">B12/B11</f>
-        <v>0.87890625</v>
+        <f t="shared" ref="B15:D15" si="7">B12/B11</f>
+        <v>0.8671875</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" si="6"/>
-        <v>0.876953125</v>
+        <f t="shared" si="7"/>
+        <v>0.861328125</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" si="6"/>
-        <v>0.87109375</v>
+        <f t="shared" si="7"/>
+        <v>0.85546875</v>
       </c>
       <c r="E15" s="4">
         <f>E12/E11</f>
-        <v>0.876953125</v>
+        <v>0.853515625</v>
       </c>
       <c r="F15" s="4">
         <f>F12/F11</f>
-        <v>0.859375</v>
+        <v>0.849609375</v>
       </c>
       <c r="G15" s="4">
         <f>G12/G11</f>
-        <v>0.861328125</v>
+        <v>0.84765625</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="24">
       <c r="A17" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="3">
         <v>177</v>
@@ -12394,59 +13244,59 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" ref="B19:D19" si="7">B18-B20</f>
-        <v>176</v>
+        <f t="shared" ref="B19:D19" si="8">B18-B20</f>
+        <v>175</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" si="7"/>
-        <v>176</v>
+        <f t="shared" si="8"/>
+        <v>175</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="7"/>
-        <v>176</v>
+        <f t="shared" si="8"/>
+        <v>175</v>
       </c>
       <c r="E19" s="3">
         <f>E18-E20</f>
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F19" s="3">
         <f>F18-F20</f>
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G19" s="3">
         <f>G18-G20</f>
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -12469,41 +13319,41 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="4">
-        <f t="shared" ref="B22:D22" si="8">B19/B18</f>
-        <v>0.99435028248587576</v>
+        <f t="shared" ref="B22:D22" si="9">B19/B18</f>
+        <v>0.98870056497175141</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" si="8"/>
-        <v>0.99435028248587576</v>
+        <f t="shared" si="9"/>
+        <v>0.98870056497175141</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="8"/>
-        <v>0.99435028248587576</v>
+        <f t="shared" si="9"/>
+        <v>0.98870056497175141</v>
       </c>
       <c r="E22" s="4">
         <f>E19/E18</f>
-        <v>0.99435028248587576</v>
+        <v>0.98870056497175141</v>
       </c>
       <c r="F22" s="4">
         <f>F19/F18</f>
-        <v>0.99435028248587576</v>
+        <v>0.98870056497175141</v>
       </c>
       <c r="G22" s="4">
         <f>G19/G18</f>
-        <v>0.99435028248587576</v>
+        <v>0.98870056497175141</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="24">
       <c r="A24" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" s="3">
         <v>658</v>
@@ -12526,59 +13376,59 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" s="3">
-        <f t="shared" ref="B26:C26" si="9">B25-B27</f>
-        <v>535</v>
+        <f t="shared" ref="B26:C26" si="10">B25-B27</f>
+        <v>512</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" si="9"/>
-        <v>536</v>
+        <f t="shared" si="10"/>
+        <v>509</v>
       </c>
       <c r="D26" s="3">
         <f>D25-D27</f>
-        <v>524</v>
+        <v>493</v>
       </c>
       <c r="E26" s="3">
         <f>E25-E27</f>
-        <v>532</v>
+        <v>500</v>
       </c>
       <c r="F26" s="3">
         <f>F25-F27</f>
-        <v>516</v>
+        <v>489</v>
       </c>
       <c r="G26" s="3">
         <f>G25-G27</f>
-        <v>521</v>
+        <v>506</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" s="3">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="C27" s="3">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="D27" s="3">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="E27" s="3">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="F27" s="7">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="G27" s="3">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -12601,41 +13451,41 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" s="4">
-        <f t="shared" ref="B29:D29" si="10">B26/B25</f>
-        <v>0.81306990881458963</v>
+        <f t="shared" ref="B29:D29" si="11">B26/B25</f>
+        <v>0.77811550151975684</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" si="10"/>
-        <v>0.81458966565349544</v>
+        <f t="shared" si="11"/>
+        <v>0.7735562310030395</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" si="10"/>
-        <v>0.79635258358662619</v>
+        <f t="shared" si="11"/>
+        <v>0.74924012158054709</v>
       </c>
       <c r="E29" s="4">
         <f>E26/E25</f>
-        <v>0.80851063829787229</v>
+        <v>0.75987841945288759</v>
       </c>
       <c r="F29" s="4">
         <f>F26/F25</f>
-        <v>0.78419452887537999</v>
+        <v>0.74316109422492405</v>
       </c>
       <c r="G29" s="4">
         <f>G26/G25</f>
-        <v>0.79179331306990886</v>
+        <v>0.76899696048632216</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="24">
       <c r="A31" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" s="3">
         <v>147</v>
@@ -12658,59 +13508,59 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33" s="3">
-        <f t="shared" ref="B33:C33" si="11">B32-B34</f>
-        <v>146</v>
+        <f t="shared" ref="B33:C33" si="12">B32-B34</f>
+        <v>141</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" si="11"/>
-        <v>143</v>
+        <f t="shared" si="12"/>
+        <v>144</v>
       </c>
       <c r="D33" s="3">
         <f>D32-D34</f>
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E33" s="3">
         <f>E32-E34</f>
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F33" s="3">
         <f>F32-F34</f>
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G33" s="3">
         <f>G32-G34</f>
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C34" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E34" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F34" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
@@ -12733,41 +13583,41 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" s="4">
-        <f t="shared" ref="B36:D36" si="12">B33/B32</f>
-        <v>0.99319727891156462</v>
+        <f t="shared" ref="B36:D36" si="13">B33/B32</f>
+        <v>0.95918367346938771</v>
       </c>
       <c r="C36" s="4">
-        <f t="shared" si="12"/>
-        <v>0.97278911564625847</v>
+        <f t="shared" si="13"/>
+        <v>0.97959183673469385</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" si="12"/>
-        <v>0.96598639455782309</v>
+        <f t="shared" si="13"/>
+        <v>0.98639455782312924</v>
       </c>
       <c r="E36" s="4">
         <f>E33/E32</f>
-        <v>0.97959183673469385</v>
+        <v>0.95918367346938771</v>
       </c>
       <c r="F36" s="4">
         <f>F33/F32</f>
-        <v>0.96598639455782309</v>
+        <v>0.95918367346938771</v>
       </c>
       <c r="G36" s="4">
         <f>G33/G32</f>
-        <v>0.97959183673469385</v>
+        <v>0.98639455782312924</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="24">
       <c r="A38" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" s="3">
         <v>212</v>
@@ -12790,59 +13640,59 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40" s="3">
-        <f t="shared" ref="B40:C40" si="13">B39-B41</f>
-        <v>212</v>
+        <f t="shared" ref="B40:C40" si="14">B39-B41</f>
+        <v>209</v>
       </c>
       <c r="C40" s="3">
-        <f t="shared" si="13"/>
-        <v>212</v>
+        <f t="shared" si="14"/>
+        <v>207</v>
       </c>
       <c r="D40" s="3">
         <f>D39-D41</f>
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E40" s="3">
         <f>E39-E41</f>
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F40" s="3">
         <f>F39-F41</f>
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G40" s="3">
         <f>G39-G41</f>
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C41" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F41" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G41" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
@@ -12865,31 +13715,163 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B43" s="4">
-        <f t="shared" ref="B43:F43" si="14">B40/B39</f>
-        <v>1</v>
+        <f t="shared" ref="B43:F43" si="15">B40/B39</f>
+        <v>0.98584905660377353</v>
       </c>
       <c r="C43" s="4">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>0.97641509433962259</v>
       </c>
       <c r="D43" s="4">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>0.98113207547169812</v>
       </c>
       <c r="E43" s="4">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>0.97641509433962259</v>
       </c>
       <c r="F43" s="4">
-        <f t="shared" si="14"/>
-        <v>0.99528301886792447</v>
+        <f t="shared" si="15"/>
+        <v>0.96698113207547165</v>
       </c>
       <c r="G43" s="4">
         <f>G40/G39</f>
-        <v>0.99528301886792447</v>
+        <v>0.97641509433962259</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="24">
+      <c r="A45" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="3">
+        <v>111</v>
+      </c>
+      <c r="C46" s="3">
+        <v>111</v>
+      </c>
+      <c r="D46" s="3">
+        <v>111</v>
+      </c>
+      <c r="E46" s="3">
+        <v>111</v>
+      </c>
+      <c r="F46" s="3">
+        <v>111</v>
+      </c>
+      <c r="G46" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="3">
+        <f t="shared" ref="B47:C47" si="16">B46-B48</f>
+        <v>103</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" si="16"/>
+        <v>95</v>
+      </c>
+      <c r="D47" s="3">
+        <f>D46-D48</f>
+        <v>101</v>
+      </c>
+      <c r="E47" s="3">
+        <f>E46-E48</f>
+        <v>97</v>
+      </c>
+      <c r="F47" s="3">
+        <f>F46-F48</f>
+        <v>95</v>
+      </c>
+      <c r="G47" s="3">
+        <f>G46-G48</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="3">
+        <v>8</v>
+      </c>
+      <c r="C48" s="3">
+        <v>16</v>
+      </c>
+      <c r="D48" s="3">
+        <v>10</v>
+      </c>
+      <c r="E48" s="3">
+        <v>14</v>
+      </c>
+      <c r="F48" s="3">
+        <v>16</v>
+      </c>
+      <c r="G48" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="4">
+        <f t="shared" ref="B50:F50" si="17">B47/B46</f>
+        <v>0.92792792792792789</v>
+      </c>
+      <c r="C50" s="4">
+        <f t="shared" si="17"/>
+        <v>0.85585585585585588</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" si="17"/>
+        <v>0.90990990990990994</v>
+      </c>
+      <c r="E50" s="4">
+        <f t="shared" si="17"/>
+        <v>0.87387387387387383</v>
+      </c>
+      <c r="F50" s="4">
+        <f t="shared" si="17"/>
+        <v>0.85585585585585588</v>
+      </c>
+      <c r="G50" s="4">
+        <f>G47/G46</f>
+        <v>0.84684684684684686</v>
       </c>
     </row>
   </sheetData>
@@ -12904,10 +13886,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117DCB63-3470-4B4B-BD53-E1CBC79257CD}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A34" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12923,10 +13905,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="31" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -12959,918 +13941,1056 @@
     </row>
     <row r="3" spans="1:7" ht="16" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="8">
-        <v>8.5000000000000006E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="C3" s="8">
-        <v>8.3000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D3" s="8">
-        <v>8.3999999999999995E-3</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="E3" s="8">
-        <v>8.3000000000000001E-3</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F3" s="8">
-        <v>8.5000000000000006E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="G3" s="8">
-        <v>8.5000000000000006E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="8">
-        <v>1.7500000000000002E-2</v>
+        <v>1.77E-2</v>
       </c>
       <c r="C4" s="8">
-        <v>1.7399999999999999E-2</v>
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="D4" s="8">
-        <v>1.6299999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="E4" s="8">
-        <v>1.6E-2</v>
+        <v>1.77E-2</v>
       </c>
       <c r="F4" s="8">
-        <v>1.67E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="G4" s="8">
-        <v>1.6400000000000001E-2</v>
+        <v>1.78E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="8">
-        <v>1.3299999999999999E-2</v>
+        <v>1.34E-2</v>
       </c>
       <c r="C5" s="8">
-        <v>1.3599999999999999E-2</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="D5" s="8">
-        <v>1.37E-2</v>
+        <v>1.34E-2</v>
       </c>
       <c r="E5" s="8">
-        <v>1.34E-2</v>
+        <v>1.3100000000000001E-2</v>
       </c>
       <c r="F5" s="8">
-        <v>1.3599999999999999E-2</v>
+        <v>1.32E-2</v>
       </c>
       <c r="G5" s="8">
-        <v>1.3599999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="8">
-        <v>1.7000000000000001E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="C6" s="8">
-        <v>1.7000000000000001E-2</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="D6" s="8">
-        <v>1.7500000000000002E-2</v>
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="E6" s="8">
-        <v>1.6500000000000001E-2</v>
+        <v>1.72E-2</v>
       </c>
       <c r="F6" s="8">
-        <v>1.67E-2</v>
+        <v>1.78E-2</v>
       </c>
       <c r="G6" s="8">
-        <v>1.67E-2</v>
+        <v>1.7600000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="8">
-        <v>8.5000000000000006E-3</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="C7" s="8">
-        <v>8.2000000000000007E-3</v>
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="D7" s="8">
-        <v>8.5000000000000006E-3</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="E7" s="8">
-        <v>8.3000000000000001E-3</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="F7" s="8">
-        <v>8.3000000000000001E-3</v>
+        <v>9.7000000000000003E-3</v>
       </c>
       <c r="G7" s="8">
-        <v>8.3000000000000001E-3</v>
+        <v>9.4000000000000004E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="32" customHeight="1">
-      <c r="A9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="8">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="C8" s="8">
+        <v>6.2399999999999997E-2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="E8" s="8">
+        <v>6.3799999999999996E-2</v>
+      </c>
+      <c r="F8" s="8">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="G8" s="8">
+        <v>6.4100000000000004E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>500</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1500</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2500</v>
-      </c>
-      <c r="G10" s="1">
-        <v>3000</v>
-      </c>
+    <row r="10" spans="1:7" ht="32" customHeight="1">
+      <c r="A10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0.1323</v>
-      </c>
-      <c r="C11" s="8">
-        <v>0.1305</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0.12859999999999999</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0.12959999999999999</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0.13070000000000001</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0.13569999999999999</v>
+      <c r="A11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>500</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2500</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3000</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
+      <c r="A12" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="8">
-        <v>0.27639999999999998</v>
+        <v>0.13220000000000001</v>
       </c>
       <c r="C12" s="8">
-        <v>0.27639999999999998</v>
+        <v>0.12189999999999999</v>
       </c>
       <c r="D12" s="8">
-        <v>0.27639999999999998</v>
+        <v>0.1241</v>
       </c>
       <c r="E12" s="8">
-        <v>0.27639999999999998</v>
+        <v>0.12620000000000001</v>
       </c>
       <c r="F12" s="8">
-        <v>0.27639999999999998</v>
+        <v>0.128</v>
       </c>
       <c r="G12" s="8">
-        <v>0.27639999999999998</v>
+        <v>0.12709999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" s="8">
-        <v>8.4000000000000005E-2</v>
+        <v>0.27639999999999998</v>
       </c>
       <c r="C13" s="8">
-        <v>8.5599999999999996E-2</v>
+        <v>0.27639999999999998</v>
       </c>
       <c r="D13" s="8">
-        <v>8.5800000000000001E-2</v>
+        <v>0.27639999999999998</v>
       </c>
       <c r="E13" s="8">
-        <v>8.5500000000000007E-2</v>
+        <v>0.27639999999999998</v>
       </c>
       <c r="F13" s="8">
-        <v>8.5199999999999998E-2</v>
+        <v>0.27639999999999998</v>
       </c>
       <c r="G13" s="8">
-        <v>8.5000000000000006E-2</v>
+        <v>0.27639999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" s="8">
-        <v>0</v>
+        <v>8.3799999999999999E-2</v>
       </c>
       <c r="C14" s="8">
-        <v>0</v>
+        <v>8.5500000000000007E-2</v>
       </c>
       <c r="D14" s="8">
-        <v>0</v>
+        <v>8.5300000000000001E-2</v>
       </c>
       <c r="E14" s="8">
-        <v>0</v>
+        <v>8.5400000000000004E-2</v>
       </c>
       <c r="F14" s="8">
-        <v>0</v>
+        <v>8.5699999999999998E-2</v>
       </c>
       <c r="G14" s="8">
-        <v>0</v>
+        <v>8.5699999999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" s="8">
-        <v>0.1022</v>
+        <v>0</v>
       </c>
       <c r="C15" s="8">
-        <v>0.1024</v>
+        <v>0</v>
       </c>
       <c r="D15" s="8">
-        <v>0.1018</v>
+        <v>0</v>
       </c>
       <c r="E15" s="8">
-        <v>0.1011</v>
+        <v>0</v>
       </c>
       <c r="F15" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="8">
-        <v>0.1018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="1"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0.1038</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.1012</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.1018</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0.105</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0.10290000000000001</v>
+      </c>
     </row>
-    <row r="17" spans="1:7" ht="24">
-      <c r="A17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>500</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1500</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2500</v>
-      </c>
-      <c r="G18" s="1">
-        <v>3000</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="8">
-        <v>2.7099999999999999E-2</v>
-      </c>
-      <c r="C19" s="8">
-        <v>2.6800000000000001E-2</v>
-      </c>
-      <c r="D19" s="8">
-        <v>2.7300000000000001E-2</v>
-      </c>
-      <c r="E19" s="8">
-        <v>2.7300000000000001E-2</v>
-      </c>
-      <c r="F19" s="8">
-        <v>2.7199999999999998E-2</v>
-      </c>
-      <c r="G19" s="8">
-        <v>2.7199999999999998E-2</v>
-      </c>
+    <row r="19" spans="1:7" ht="24">
+      <c r="A19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="8">
-        <v>0.31950000000000001</v>
-      </c>
-      <c r="C20" s="8">
-        <v>0.31969999999999998</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0.31969999999999998</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0.32719999999999999</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0.32940000000000003</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0.32119999999999999</v>
+      <c r="A20" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>500</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2500</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="1" t="s">
-        <v>3</v>
+      <c r="A21" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B21" s="8">
-        <v>2.3E-2</v>
+        <v>2.76E-2</v>
       </c>
       <c r="C21" s="8">
-        <v>2.2800000000000001E-2</v>
+        <v>2.76E-2</v>
       </c>
       <c r="D21" s="8">
-        <v>2.3E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E21" s="8">
-        <v>2.2800000000000001E-2</v>
+        <v>2.69E-2</v>
       </c>
       <c r="F21" s="8">
-        <v>2.29E-2</v>
+        <v>2.69E-2</v>
       </c>
       <c r="G21" s="8">
-        <v>2.3099999999999999E-2</v>
+        <v>2.7300000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B22" s="8">
-        <v>2.47E-2</v>
+        <v>0.32679999999999998</v>
       </c>
       <c r="C22" s="8">
-        <v>2.5399999999999999E-2</v>
+        <v>0.3271</v>
       </c>
       <c r="D22" s="8">
-        <v>2.5100000000000001E-2</v>
+        <v>0.32629999999999998</v>
       </c>
       <c r="E22" s="8">
-        <v>2.4899999999999999E-2</v>
+        <v>0.3231</v>
       </c>
       <c r="F22" s="8">
-        <v>2.47E-2</v>
+        <v>0.32479999999999998</v>
       </c>
       <c r="G22" s="8">
-        <v>2.53E-2</v>
+        <v>0.32519999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B23" s="8">
-        <v>2.0299999999999999E-2</v>
+        <v>2.29E-2</v>
       </c>
       <c r="C23" s="8">
-        <v>2.12E-2</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="D23" s="8">
-        <v>2.12E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E23" s="8">
-        <v>2.1399999999999999E-2</v>
+        <v>2.29E-2</v>
       </c>
       <c r="F23" s="8">
-        <v>2.12E-2</v>
+        <v>2.2700000000000001E-2</v>
       </c>
       <c r="G23" s="8">
-        <v>2.12E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="1"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="8">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="C24" s="8">
+        <v>2.52E-2</v>
+      </c>
+      <c r="D24" s="8">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="E24" s="8">
+        <v>2.53E-2</v>
+      </c>
+      <c r="F24" s="8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G24" s="8">
+        <v>2.5100000000000001E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:7" ht="24">
-      <c r="A25" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="8">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="C25" s="8">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="D25" s="8">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="E25" s="8">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F25" s="8">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="G25" s="8">
+        <v>2.1100000000000001E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>500</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1500</v>
-      </c>
-      <c r="E26" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F26" s="1">
-        <v>2500</v>
-      </c>
-      <c r="G26" s="1">
-        <v>3000</v>
+      <c r="A26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="8">
+        <v>5.6800000000000003E-2</v>
+      </c>
+      <c r="C26" s="8">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="D26" s="8">
+        <v>5.28E-2</v>
+      </c>
+      <c r="E26" s="8">
+        <v>5.2699999999999997E-2</v>
+      </c>
+      <c r="F26" s="8">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="G26" s="8">
+        <v>5.11E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="4">
-        <v>0.52339999999999998</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0.54830000000000001</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0.56389999999999996</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0.55449999999999999</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0.55759999999999998</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0.55759999999999998</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="4">
-        <v>0.72860000000000003</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0.7571</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0.77139999999999997</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0.77139999999999997</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0.78569999999999995</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0.8</v>
-      </c>
+    <row r="28" spans="1:7" ht="24">
+      <c r="A28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="4">
-        <v>0.91959999999999997</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0.91069999999999995</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0.91959999999999997</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0.91959999999999997</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0.92859999999999998</v>
-      </c>
-      <c r="G29" s="4">
-        <v>0.9375</v>
+      <c r="A29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1">
+        <v>500</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2500</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3000</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
-        <v>4</v>
+      <c r="A30" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B30" s="4">
-        <v>0.67</v>
+        <v>0.50160000000000005</v>
       </c>
       <c r="C30" s="4">
-        <v>0.7</v>
+        <v>0.53269999999999995</v>
       </c>
       <c r="D30" s="4">
-        <v>0.74</v>
+        <v>0.54830000000000001</v>
       </c>
       <c r="E30" s="4">
-        <v>0.72</v>
+        <v>0.54520000000000002</v>
       </c>
       <c r="F30" s="4">
-        <v>0.71</v>
+        <v>0.53890000000000005</v>
       </c>
       <c r="G30" s="4">
-        <v>0.71</v>
+        <v>0.55449999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B31" s="4">
-        <v>0.30549999999999999</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="C31" s="4">
-        <v>0.42649999999999999</v>
+        <v>0.77139999999999997</v>
       </c>
       <c r="D31" s="4">
-        <v>0.4582</v>
+        <v>0.77139999999999997</v>
       </c>
       <c r="E31" s="4">
-        <v>0.53600000000000003</v>
+        <v>0.78569999999999995</v>
       </c>
       <c r="F31" s="4">
-        <v>0.5706</v>
+        <v>0.77139999999999997</v>
       </c>
       <c r="G31" s="4">
-        <v>0.5706</v>
+        <v>0.78569999999999995</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="1"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="A32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.91069999999999995</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.91069999999999995</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.9375</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.91069999999999995</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0.92859999999999998</v>
+      </c>
     </row>
-    <row r="33" spans="1:7" ht="24">
-      <c r="A33" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="1">
-        <v>500</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1500</v>
-      </c>
-      <c r="E34" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F34" s="1">
-        <v>2500</v>
-      </c>
-      <c r="G34" s="1">
-        <v>3000</v>
+      <c r="A34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.27089999999999997</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.34289999999999998</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.38040000000000002</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.40350000000000003</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0.45240000000000002</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0.49280000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B35" s="4">
-        <v>0.25</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="C35" s="4">
-        <v>0.3125</v>
+        <v>0.90480000000000005</v>
       </c>
       <c r="D35" s="4">
-        <v>0.3125</v>
+        <v>0.92859999999999998</v>
       </c>
       <c r="E35" s="4">
-        <v>0.375</v>
+        <v>0.97619999999999996</v>
       </c>
       <c r="F35" s="4">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="G35" s="4">
-        <v>0.3125</v>
+        <v>0.97619999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="4">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="C36" s="4">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="D36" s="4">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="E36" s="4">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="F36" s="4">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="G36" s="4">
-        <v>8.3299999999999999E-2</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="C37" s="4">
-        <v>0.23330000000000001</v>
-      </c>
-      <c r="D37" s="4">
-        <v>0.26669999999999999</v>
-      </c>
-      <c r="E37" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0.36670000000000003</v>
-      </c>
-      <c r="G37" s="4">
-        <v>0.4</v>
-      </c>
+    <row r="37" spans="1:7" ht="24">
+      <c r="A37" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="4">
+      <c r="A38" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="4">
-        <v>0</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0</v>
-      </c>
-      <c r="E38" s="4">
-        <v>0</v>
-      </c>
-      <c r="F38" s="4">
-        <v>0</v>
-      </c>
-      <c r="G38" s="4">
-        <v>0</v>
+      <c r="B38" s="1">
+        <v>500</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2500</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3000</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="1" t="s">
-        <v>5</v>
+      <c r="A39" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B39" s="4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C39" s="4">
-        <v>0.55559999999999998</v>
+        <v>0.375</v>
       </c>
       <c r="D39" s="4">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="E39" s="4">
-        <v>0.55559999999999998</v>
+        <v>0.3125</v>
       </c>
       <c r="F39" s="4">
-        <v>0.55559999999999998</v>
+        <v>0.375</v>
       </c>
       <c r="G39" s="4">
-        <v>0.61109999999999998</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="1"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="A40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="4">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="C40" s="4">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="D40" s="4">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="E40" s="4">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="F40" s="4">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="G40" s="4">
+        <v>8.3299999999999999E-2</v>
+      </c>
     </row>
-    <row r="41" spans="1:7" ht="24">
-      <c r="A41" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="42" spans="1:7" ht="24" customHeight="1">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="4">
         <v>0</v>
       </c>
-      <c r="B42" s="1">
-        <v>500</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D42" s="1">
-        <v>1500</v>
-      </c>
-      <c r="E42" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F42" s="1">
-        <v>2500</v>
-      </c>
-      <c r="G42" s="1">
-        <v>3000</v>
+      <c r="C42" s="4">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="5" t="s">
-        <v>17</v>
+      <c r="A43" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B43" s="4">
-        <v>0.40200000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="C43" s="4">
-        <v>0.42159999999999997</v>
+        <v>0.55559999999999998</v>
       </c>
       <c r="D43" s="4">
-        <v>0.42159999999999997</v>
+        <v>0.55559999999999998</v>
       </c>
       <c r="E43" s="4">
-        <v>0.42159999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="F43" s="4">
-        <v>0.42159999999999997</v>
+        <v>0.55559999999999998</v>
       </c>
       <c r="G43" s="4">
-        <v>0.42159999999999997</v>
+        <v>0.61109999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B44" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C44" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D44" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E44" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F44" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G44" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="1"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" ht="24">
+      <c r="A46" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+    </row>
+    <row r="47" spans="1:7" ht="24" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="1">
+        <v>500</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2500</v>
+      </c>
+      <c r="G47" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0.42159999999999997</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.4118</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0.42159999999999997</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0.42159999999999997</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0.42159999999999997</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0.42159999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0.63490000000000002</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.77780000000000005</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0.82540000000000002</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0.82540000000000002</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0.84130000000000005</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0.82540000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="4">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="C45" s="4">
-        <v>0.76190000000000002</v>
-      </c>
-      <c r="D45" s="4">
-        <v>0.76190000000000002</v>
-      </c>
-      <c r="E45" s="4">
-        <v>0.73019999999999996</v>
-      </c>
-      <c r="F45" s="4">
-        <v>0.84130000000000005</v>
-      </c>
-      <c r="G45" s="4">
-        <v>0.82540000000000002</v>
+      <c r="B51" s="4">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.59150000000000003</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.63380000000000003</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0.63380000000000003</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0.70420000000000005</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0.64790000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="1" t="s">
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="4">
-        <v>0.57750000000000001</v>
-      </c>
-      <c r="C46" s="4">
-        <v>0.61970000000000003</v>
-      </c>
-      <c r="D46" s="4">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="E46" s="4">
-        <v>0.61970000000000003</v>
-      </c>
-      <c r="F46" s="4">
-        <v>0.60560000000000003</v>
-      </c>
-      <c r="G46" s="4">
-        <v>0.61970000000000003</v>
+      <c r="B52" s="4">
+        <v>0.60289999999999999</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0.60289999999999999</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0.61760000000000004</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0.60289999999999999</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0.61760000000000004</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0.63239999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="4">
-        <v>0.57350000000000001</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0.60289999999999999</v>
-      </c>
-      <c r="D47" s="4">
-        <v>0.61760000000000004</v>
-      </c>
-      <c r="E47" s="4">
-        <v>0.60289999999999999</v>
-      </c>
-      <c r="F47" s="4">
-        <v>0.63239999999999996</v>
-      </c>
-      <c r="G47" s="4">
-        <v>0.64710000000000001</v>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0.66670000000000007</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0.90480000000000005</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0.95239999999999991</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0.95239999999999991</v>
+      </c>
+      <c r="G53" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B46:G46"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B37:G37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
